--- a/仕様書/NormalGimmick.xlsx
+++ b/仕様書/NormalGimmick.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escar\Desktop\HITODE仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escar\Desktop\GameDev\Document\HITODE_doc\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08426491-2999-4628-88CD-E6910353F457}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7596B01-F061-4930-9E7F-152C94F84182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{FFF9A6DB-CC9B-4400-988B-87D92BCA32D4}"/>
+    <workbookView xWindow="2180" yWindow="2110" windowWidth="16920" windowHeight="10990" xr2:uid="{FFF9A6DB-CC9B-4400-988B-87D92BCA32D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="詳細+工数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -386,7 +387,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -394,4 +395,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EFA205-21DF-459F-ADFF-6F3F59B376C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>